--- a/medicine/Handicap/Wassel_(pouce)/Wassel_(pouce).xlsx
+++ b/medicine/Handicap/Wassel_(pouce)/Wassel_(pouce).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification de Wassel est un système de classement des modes de duplication du pouce. La duplication du pouce est une des anomalies congénitales les plus fréquentes au niveau de la main (polydactylie préaxiale).
 Wassel[Qui ?] a proposé [Quand ?] une classification basée sur le niveau osseux de division, qui distingue sept différents types.
@@ -512,7 +524,9 @@
           <t>Les 7 types de duplication selon le système de Wassel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Basée sur la radiologie, elle prend en compte le siège de la duplication sur le squelette :
 I : phalange distale bifide
@@ -521,12 +535,7 @@
 IV : duplication de la phalange proximale à partir de la métacarpo-phalangienne (la plus fréquente = 47 %)
 V : métacarpien bifide
 VI : duplication du métacarpien à partir de la trapézo métacarpienne
-VII : formes atypiques avec un pouce à 3 phalanges. La phalange supplémentaire peut être normale, triangulaire (Phalange Delta) ou losangique
-Classification complémentaire
-Un autre groupe peut être ajouté : pouce surnuméraire de type rudimentaire ou flottant (Ikuta). Il faut également prendre en compte l’aspect équilibré ou déséquilibré de la duplication selon le volume respectif des pouces.
-Classement d'après la position
-Duplications distales : I, II et III de Wassel
-Duplications proximales : IV, V et VI de Wassel</t>
+VII : formes atypiques avec un pouce à 3 phalanges. La phalange supplémentaire peut être normale, triangulaire (Phalange Delta) ou losangique</t>
         </is>
       </c>
     </row>
@@ -551,14 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Traitement</t>
+          <t>Les 7 types de duplication selon le système de Wassel</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Le traitement se résume rarement à une simple résection chirurgicale du pouce dupliqué. De nombreux facteurs influencent le résultat. Ainsi, la déviation, l'instabilité et la taille de chacun des deux hémipouces jouent un rôle.
-Duplications de groupe I et II : en principe, le traitement consiste en une fusion des deux hémipouces.
-Dans les variantes « proximales » de ces duplications, la résection de l’un des deux hémipouces est le plus souvent requise, associée, suivant les cas à une ostéotomie, une réinsertion ligamentaire et à un réétoffage avec un lambeau prélevé sur l’hémipouce dupliqué. Le résultat n’est cependant jamais parfait : présence d'un arc de mobilité réduit à hauteur de la MCP (métacarpo-phalangienne) et/ou de l’IP (l’inter-phalangienne).</t>
+          <t>Classification complémentaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un autre groupe peut être ajouté : pouce surnuméraire de type rudimentaire ou flottant (Ikuta). Il faut également prendre en compte l’aspect équilibré ou déséquilibré de la duplication selon le volume respectif des pouces.
+</t>
         </is>
       </c>
     </row>
@@ -583,10 +597,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Les 7 types de duplication selon le système de Wassel</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classement d'après la position</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Duplications distales : I, II et III de Wassel
+Duplications proximales : IV, V et VI de Wassel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wassel_(pouce)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wassel_(pouce)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le traitement se résume rarement à une simple résection chirurgicale du pouce dupliqué. De nombreux facteurs influencent le résultat. Ainsi, la déviation, l'instabilité et la taille de chacun des deux hémipouces jouent un rôle.
+Duplications de groupe I et II : en principe, le traitement consiste en une fusion des deux hémipouces.
+Dans les variantes « proximales » de ces duplications, la résection de l’un des deux hémipouces est le plus souvent requise, associée, suivant les cas à une ostéotomie, une réinsertion ligamentaire et à un réétoffage avec un lambeau prélevé sur l’hémipouce dupliqué. Le résultat n’est cependant jamais parfait : présence d'un arc de mobilité réduit à hauteur de la MCP (métacarpo-phalangienne) et/ou de l’IP (l’inter-phalangienne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wassel_(pouce)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wassel_(pouce)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Polydactylie préaxiale, duplication du pouce
 Duplications du pouce, article de G. Dautel et S. Barbary, Unité fonctionnelle de chirurgie de la main de l’enfant, CHU de Nancy, 2008.07.027.
